--- a/Data/EC/NIT-8040043199.xlsx
+++ b/Data/EC/NIT-8040043199.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E38D3A1B-5B79-47FD-9388-FD7CC59962B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D34BD43-C552-401B-B483-A248EEFA32E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3667B37C-8716-469D-8397-4B9307682A6D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BCDA8B48-1DCE-45F2-93B6-B6DD8677C59C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="96">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,103 +65,163 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45754348</t>
+  </si>
+  <si>
+    <t>EVEDIT PINILLA ARTEAGA</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>1002200805</t>
+  </si>
+  <si>
+    <t>PETRONA GONZALEZ GALLEGO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>1043296656</t>
+  </si>
+  <si>
+    <t>YULIELYS ANGULO CONTRERAS</t>
+  </si>
+  <si>
+    <t>1047406789</t>
+  </si>
+  <si>
+    <t>YARLENIS FARIA LEON</t>
+  </si>
+  <si>
     <t>1050953934</t>
   </si>
   <si>
     <t>HERNANDO JULIO VALDELAMAR</t>
   </si>
   <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
+    <t>1047423476</t>
+  </si>
+  <si>
+    <t>YINA DANIELA DIAZ PEDROZA</t>
+  </si>
+  <si>
+    <t>30896503</t>
+  </si>
+  <si>
+    <t>MARLINI ROSA CASSIANI RIZZO</t>
+  </si>
+  <si>
     <t>49667577</t>
   </si>
   <si>
     <t>LUZ ESTHELA MENDEZ CRUZ</t>
   </si>
   <si>
-    <t>30896503</t>
-  </si>
-  <si>
-    <t>MARLINI ROSA CASSIANI RIZZO</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
+    <t>1128052388</t>
+  </si>
+  <si>
+    <t>MAIRA ALEJANDRA PUELLO LOPEZ</t>
   </si>
   <si>
     <t>1049022004</t>
@@ -170,13 +230,19 @@
     <t>FRANCE LILIANA RUIZ VERA</t>
   </si>
   <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2008</t>
   </si>
   <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
+    <t>1235042703</t>
+  </si>
+  <si>
+    <t>DINA LUZ VENECIA GUEVARA</t>
   </si>
   <si>
     <t>1047488689</t>
@@ -185,85 +251,46 @@
     <t>LIZETH KAROLAY PALENCIA QUINONES</t>
   </si>
   <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
     <t>2408</t>
   </si>
   <si>
+    <t>1007962793</t>
+  </si>
+  <si>
+    <t>ANDREA CAROLINA VARGAS CANTILLO</t>
+  </si>
+  <si>
+    <t>1007443348</t>
+  </si>
+  <si>
+    <t>CHELSEA CANTILLO MIRANDA</t>
+  </si>
+  <si>
+    <t>1065014531</t>
+  </si>
+  <si>
+    <t>DINA MERCEDES PEREZ ESCOBAR</t>
+  </si>
+  <si>
     <t>1030635535</t>
   </si>
   <si>
     <t>DALIDA ROSA ROA LECHUGA</t>
   </si>
   <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>1007962793</t>
-  </si>
-  <si>
-    <t>ANDREA CAROLINA VARGAS CANTILLO</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>1047406789</t>
-  </si>
-  <si>
-    <t>YARLENIS FARIA LEON</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
     <t>1067838910</t>
   </si>
   <si>
     <t>DIANY CLARENA PALENCIA ARROYO</t>
-  </si>
-  <si>
-    <t>1002200805</t>
-  </si>
-  <si>
-    <t>PETRONA GONZALEZ GALLEGO</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>45754348</t>
-  </si>
-  <si>
-    <t>EVEDIT PINILLA ARTEAGA</t>
-  </si>
-  <si>
-    <t>1047423476</t>
-  </si>
-  <si>
-    <t>YINA DANIELA DIAZ PEDROZA</t>
-  </si>
-  <si>
-    <t>1065014531</t>
-  </si>
-  <si>
-    <t>DINA MERCEDES PEREZ ESCOBAR</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -677,7 +704,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4575DE59-1ACD-0AEF-D466-662D7CA2698B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C94DA4-C709-3705-3DE2-E6D75A6CED1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,8 +1055,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6C4792-ED47-459F-A4C6-423436E34D0C}">
-  <dimension ref="B2:J105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6B946A-4817-4EE2-8611-013E9C39A5E6}">
+  <dimension ref="B2:J117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1053,7 +1080,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1098,7 +1125,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1130,12 +1157,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3717780</v>
+        <v>4315420</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1146,17 +1173,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F13" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1183,13 +1210,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1206,10 +1233,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>54968</v>
+        <v>21729</v>
       </c>
       <c r="G16" s="18">
-        <v>1374200</v>
+        <v>1018548</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1226,13 +1253,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>24640</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>616000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1243,19 +1270,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>27851</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1266,19 +1293,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>54968</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1374200</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1289,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>54968</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>1374200</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1312,19 +1339,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>54968</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1374200</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1335,19 +1362,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>54968</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1374200</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1358,19 +1385,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>54968</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1374200</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1381,19 +1408,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>54968</v>
+        <v>48533</v>
       </c>
       <c r="G24" s="18">
-        <v>1374200</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1404,19 +1431,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
-        <v>54968</v>
+        <v>56940</v>
       </c>
       <c r="G25" s="18">
-        <v>1374200</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1427,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>54968</v>
+        <v>6933</v>
       </c>
       <c r="G26" s="18">
-        <v>1374200</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1450,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
-        <v>54968</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>1374200</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1473,19 +1500,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>54968</v>
+        <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>1374200</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1496,13 +1523,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
         <v>54968</v>
@@ -1519,13 +1546,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>54968</v>
@@ -1542,13 +1569,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>54968</v>
@@ -1565,13 +1592,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
         <v>54968</v>
@@ -1588,13 +1615,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
         <v>54968</v>
@@ -1611,13 +1638,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
         <v>54968</v>
@@ -1634,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
         <v>54968</v>
@@ -1657,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" s="18">
         <v>54968</v>
@@ -1680,13 +1707,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" s="18">
         <v>54968</v>
@@ -1703,13 +1730,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>54968</v>
@@ -1726,13 +1753,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>54968</v>
@@ -1749,13 +1776,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
         <v>54968</v>
@@ -1772,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
         <v>54968</v>
@@ -1795,13 +1822,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
         <v>54968</v>
@@ -1818,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
         <v>54968</v>
@@ -1841,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
         <v>54968</v>
@@ -1864,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F45" s="18">
-        <v>15215</v>
+        <v>54968</v>
       </c>
       <c r="G45" s="18">
-        <v>908526</v>
+        <v>1374200</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1887,19 +1914,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
-        <v>35112</v>
+        <v>54968</v>
       </c>
       <c r="G46" s="18">
-        <v>908526</v>
+        <v>1374200</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1910,19 +1937,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
-        <v>35112</v>
+        <v>54968</v>
       </c>
       <c r="G47" s="18">
-        <v>908526</v>
+        <v>1374200</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1933,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
-        <v>19067</v>
+        <v>54968</v>
       </c>
       <c r="G48" s="18">
-        <v>650000</v>
+        <v>1374200</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1956,19 +1983,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
-        <v>19067</v>
+        <v>54968</v>
       </c>
       <c r="G49" s="18">
-        <v>650000</v>
+        <v>1374200</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1979,19 +2006,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
-        <v>26000</v>
+        <v>54968</v>
       </c>
       <c r="G50" s="18">
-        <v>650000</v>
+        <v>1374200</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2002,19 +2029,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
-        <v>26000</v>
+        <v>54968</v>
       </c>
       <c r="G51" s="18">
-        <v>650000</v>
+        <v>1374200</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2025,19 +2052,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F52" s="18">
-        <v>26000</v>
+        <v>54968</v>
       </c>
       <c r="G52" s="18">
-        <v>650000</v>
+        <v>1374200</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2048,19 +2075,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F53" s="18">
-        <v>15600</v>
+        <v>54968</v>
       </c>
       <c r="G53" s="18">
-        <v>1300000</v>
+        <v>1374200</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2071,19 +2098,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54" s="18">
-        <v>26000</v>
+        <v>54968</v>
       </c>
       <c r="G54" s="18">
-        <v>650000</v>
+        <v>1374200</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2094,19 +2121,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F55" s="18">
-        <v>52000</v>
+        <v>54968</v>
       </c>
       <c r="G55" s="18">
-        <v>1300000</v>
+        <v>1374200</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2117,19 +2144,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F56" s="18">
-        <v>26000</v>
+        <v>56940</v>
       </c>
       <c r="G56" s="18">
-        <v>650000</v>
+        <v>1423500</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2140,19 +2167,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F57" s="18">
-        <v>26000</v>
+        <v>56940</v>
       </c>
       <c r="G57" s="18">
-        <v>650000</v>
+        <v>1423500</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2163,19 +2190,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="F58" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G58" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2186,19 +2213,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F59" s="18">
-        <v>48533</v>
+        <v>56940</v>
       </c>
       <c r="G59" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2209,19 +2236,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F60" s="18">
-        <v>26000</v>
+        <v>56940</v>
       </c>
       <c r="G60" s="18">
-        <v>650000</v>
+        <v>1423500</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2232,19 +2259,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F61" s="18">
-        <v>26000</v>
+        <v>56940</v>
       </c>
       <c r="G61" s="18">
-        <v>650000</v>
+        <v>1423500</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2255,19 +2282,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F62" s="18">
-        <v>48533</v>
+        <v>45552</v>
       </c>
       <c r="G62" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2278,19 +2305,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F63" s="18">
-        <v>52000</v>
+        <v>27851</v>
       </c>
       <c r="G63" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2301,19 +2328,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F64" s="18">
-        <v>52000</v>
+        <v>24640</v>
       </c>
       <c r="G64" s="18">
-        <v>1300000</v>
+        <v>616000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2324,19 +2351,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F65" s="18">
-        <v>21729</v>
+        <v>22000</v>
       </c>
       <c r="G65" s="18">
-        <v>1018548</v>
+        <v>1500000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2347,19 +2374,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F66" s="18">
-        <v>26000</v>
+        <v>35112</v>
       </c>
       <c r="G66" s="18">
-        <v>650000</v>
+        <v>908526</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2370,19 +2397,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F67" s="18">
-        <v>45552</v>
+        <v>35112</v>
       </c>
       <c r="G67" s="18">
-        <v>1423500</v>
+        <v>908526</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2393,19 +2420,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F68" s="18">
-        <v>26000</v>
+        <v>15215</v>
       </c>
       <c r="G68" s="18">
-        <v>650000</v>
+        <v>908526</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2416,19 +2443,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F69" s="18">
         <v>52000</v>
       </c>
       <c r="G69" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2445,13 +2472,13 @@
         <v>70</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="F70" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G70" s="18">
-        <v>1300000</v>
+        <v>650000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2462,19 +2489,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F71" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G71" s="18">
-        <v>1300000</v>
+        <v>650000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2485,19 +2512,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F72" s="18">
-        <v>56940</v>
+        <v>26000</v>
       </c>
       <c r="G72" s="18">
-        <v>1423500</v>
+        <v>650000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2514,13 +2541,13 @@
         <v>70</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F73" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G73" s="18">
-        <v>1300000</v>
+        <v>650000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2531,13 +2558,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F74" s="18">
         <v>26000</v>
@@ -2554,19 +2581,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F75" s="18">
-        <v>6933</v>
+        <v>26000</v>
       </c>
       <c r="G75" s="18">
-        <v>1300000</v>
+        <v>650000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2577,13 +2604,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F76" s="18">
         <v>26000</v>
@@ -2600,19 +2627,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="F77" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G77" s="18">
-        <v>1300000</v>
+        <v>650000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2623,19 +2650,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F78" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G78" s="18">
-        <v>1300000</v>
+        <v>650000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2646,19 +2673,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F79" s="18">
-        <v>56940</v>
+        <v>26000</v>
       </c>
       <c r="G79" s="18">
-        <v>1423500</v>
+        <v>650000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2669,13 +2696,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F80" s="18">
         <v>26000</v>
@@ -2692,19 +2719,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F81" s="18">
-        <v>52000</v>
+        <v>19067</v>
       </c>
       <c r="G81" s="18">
-        <v>1300000</v>
+        <v>650000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2715,19 +2742,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="F82" s="18">
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="G82" s="18">
-        <v>650000</v>
+        <v>1666400</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2738,19 +2765,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F83" s="18">
         <v>52000</v>
       </c>
       <c r="G83" s="18">
-        <v>1300000</v>
+        <v>1666400</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2761,19 +2788,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F84" s="18">
-        <v>52000</v>
+        <v>15600</v>
       </c>
       <c r="G84" s="18">
-        <v>1300000</v>
+        <v>1666400</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2784,19 +2811,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="F85" s="18">
-        <v>26000</v>
+        <v>56940</v>
       </c>
       <c r="G85" s="18">
-        <v>650000</v>
+        <v>1423500</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2807,13 +2834,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="F86" s="18">
         <v>56940</v>
@@ -2830,19 +2857,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F87" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G87" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2853,19 +2880,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="F88" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G88" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2876,13 +2903,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="F89" s="18">
         <v>52000</v>
@@ -2899,13 +2926,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="F90" s="18">
         <v>52000</v>
@@ -2922,13 +2949,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F91" s="18">
         <v>52000</v>
@@ -2945,19 +2972,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="F92" s="18">
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="G92" s="18">
-        <v>650000</v>
+        <v>1300000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2968,19 +2995,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="F93" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G93" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2991,13 +3018,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="F94" s="18">
         <v>52000</v>
@@ -3014,13 +3041,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F95" s="18">
         <v>52000</v>
@@ -3037,19 +3064,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F96" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G96" s="18">
-        <v>1300000</v>
+        <v>650000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3060,13 +3087,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F97" s="18">
         <v>26000</v>
@@ -3083,75 +3110,351 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F98" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G98" s="18">
-        <v>1300000</v>
+        <v>650000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F99" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G99" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="26"/>
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G99" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F100" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G100" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F101" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G101" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F102" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G102" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F103" s="18">
+        <v>19067</v>
+      </c>
+      <c r="G103" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C104" s="32"/>
-      <c r="H104" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G104" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D105" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C105" s="32"/>
-      <c r="H105" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="E105" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G105" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G106" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G107" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G108" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G109" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G110" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="24">
+        <v>48533</v>
+      </c>
+      <c r="G111" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="26"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" s="32"/>
+      <c r="H116" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" s="32"/>
+      <c r="H117" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="H116:J116"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
